--- a/biology/Botanique/Parc_de_Bruxelles/Parc_de_Bruxelles.xlsx
+++ b/biology/Botanique/Parc_de_Bruxelles/Parc_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de Bruxelles (en néerlandais : Warandepark)  anciennement appelé Parc royal[2] (ce dernier se trouve en réalité à Laeken, face au Domaine royal et au Château royal et est accessible par l'avenue du Parc royal) est un parc public du centre bruxellois dans le quartier de la Cour d’environ 11 hectares et classé au patrimoine de la Région de Bruxelles-Capitale depuis le 21 juin 1971.
+Le parc de Bruxelles (en néerlandais : Warandepark)  anciennement appelé Parc royal (ce dernier se trouve en réalité à Laeken, face au Domaine royal et au Château royal et est accessible par l'avenue du Parc royal) est un parc public du centre bruxellois dans le quartier de la Cour d’environ 11 hectares et classé au patrimoine de la Région de Bruxelles-Capitale depuis le 21 juin 1971.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La création du parc coïncide avec celle de la place Royale, édifiée à partir de 1775 sur les ruines du château des ducs de Brabant, situé au sommet du Coudenberg et appelé communément depuis l'incendie qui l'a ravagé en 1731, « l'Ancienne Cour » ou « la Cour brulée ».
 Remanié et agrandi sous Jean III de Brabant et ensuite sous Philippe le Bon, le château était entouré de la place des Bailles, clôturée, et, à l’arrière, d’un parc divisé en deux parties : le grand parc ou warande, réserve à gibier (voir garande) qui s’étendait, à la fin du règne de Charles Quint, jusqu’à la rue de Louvain et aux remparts situés porte de Namur ; le petit parc, situé dans le vallon du Koperbeek, entre l’arrière du palais et le bois. Celui-ci comprenait un jardin d’agrément privé, dénommé au fil de ses réaménagements successifs, tantôt « Feuillée », tantôt « Labyrinthe » par évocation des berceaux de verdures, portiques et bassins du labyrinthe de Corinthe. Sur le versant opposé, un vignoble, une orangerie et des volières d’oiseaux exotiques et, dans le reste du vallon, un jardin de fleurs et un étang agrémentaient l’ensemble.
@@ -523,7 +537,7 @@
 La Ville de Bruxelles, qui gère le parc dès 1797 avant d’en devenir propriétaire par arrêté royal du 23 avril 1817, s’attache à réparer les dégâts et repeuple bientôt le parc de statues et de bustes actuels. À court d’argent, elle organise aussitôt une souscription publique au terme de laquelle la direction de l’entretien du parc est confiée aux trente plus généreux donateurs. Les résultats dépassent largement les attentes et les mécènes victorieux délèguent sept représentants qui constituent la commission du parc.
 Lors de la révolution d’indépendance de la Belgique, le parc sert de refuge à l’armée hollandaise assiégée par les insurgés du 23 au 27 septembre 1830, date de sa retraite vers Anvers.
 Victime des outrages du temps, le parc a fait l’objet d’une campagne de restauration en profondeur qui s’est achevée en 2001. Des arbres ont été abattus et replantés, les taillis revivifiés, les chemins et les pelouses recoupés et refaits, le mobilier rajeuni et les kiosques du côté du Palais royal reconstruits.
-Selon l'ASBL bruxelloise Alias, le parc royal de Bruxelles, et plus particulièrement les vestiges du vallon du Koperbeek, serait un lieu de prostitution masculine et de maraude sexuelle[3].
+Selon l'ASBL bruxelloise Alias, le parc royal de Bruxelles, et plus particulièrement les vestiges du vallon du Koperbeek, serait un lieu de prostitution masculine et de maraude sexuelle.
 </t>
         </is>
       </c>
@@ -552,12 +566,14 @@
           <t>Un parti géométrique et forestier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Royal, qui est en fait un grand rectangle aux angles coupés, est conçu selon les principes de l’architecture classique tout en conservant un caractère forestier. La composition géométrique est déterminée par les contraintes urbanistiques des rues avoisinantes que les allées du parc prolongent.
 Les cheminements, qui occupent près de la moitié de la superficie, comportent trois grandes allées en patte-d’oie, entrecoupées de deux allées transversales assurant la liaison entre les rues Royale et Ducale d’une part et le bas de la ville d’autre part. L’axe de l’allée droite de la patte-d’oie est déterminé par la place Royale, elle-même décalée par rapport à la rue Royale en raison de la présence d’un coude des anciens remparts et de la nécessité de maintenir des voiries préexistantes. Enfin, une allée extérieure agrémentée de tilleuls palissés entoure la totalité du parc.
 C’est un dessin en patte d'oie couramment utilisé dans le tracé des jardins paysagers depuis le XVIIe siècle.
-Certains auteurs ont voulu voir des symboles maçonniques dans ce tracé — le compas notamment — ajoutant comme preuve les lettres V. I. T. R. I. O. L. qui forment une phrase initiatique de la maçonnerie, situées sur le mur au fond du parc, mais cet argument s'effondre quand on sait que ces lettres sont le reste d'une installation placée là lors d'une exposition d'œuvres d'art au Parc de Bruxelles de juin-août 1991[4]. Ce dernier détail n'est pas suffisant pour écarter complètement cette hypothèse[5] si l'on tient compte du fait que le prince de Starhemberg, le concepteur du plan d'ensemble du parc, était membre de la Loge Minerve aux Trois Palmiers de la Stricte Observance Templière. Sous le gouvernement de Charles Alexandre de Lorraine, il eut les pleins pouvoirs. Albert de Saxe-Teschen, le successeur de Charles de Lorraine en 1781, était également membre de la Stricte Observance et Protecteur des Rites rectifiés. Il faisait partie de la même Loge que Starhenberg. Apparenté à ce dernier, le Prince Wenceslas Antoine de Kaunitz, Chancelier d’État de Marie-Thérèse d'Autriche, était membre affilié de la Loge L'Heureuse Rencontre à Bruxelles. Enfin, le sculpteur principal du Parc et du fronton allégorique du Palais de la Nation, Gilles-Lambert Godecharle, était lui aussi Franc-maçon. Sur un refus de Joseph II, un obélisque du même Godecharle, orné de Minerve, Hermès et l'Abondance et protégé par huit sphinges ne prit jamais place au milieu du bassin rond. Il devait constituer la dernière pierre de tout l'édifice. Houdon, membre de la Loge des Neuf Sœurs devait en sculpter le bassin principal "qui doit faire parler le monument". Le timbre dit du premier jour du bicentenaire des Amis Philanthropes (1998), qui reprend un plan du parc de 1790, semble confirmer l’hypothèse du Parc de Bruxelles maçonnique[6].
+Certains auteurs ont voulu voir des symboles maçonniques dans ce tracé — le compas notamment — ajoutant comme preuve les lettres V. I. T. R. I. O. L. qui forment une phrase initiatique de la maçonnerie, situées sur le mur au fond du parc, mais cet argument s'effondre quand on sait que ces lettres sont le reste d'une installation placée là lors d'une exposition d'œuvres d'art au Parc de Bruxelles de juin-août 1991. Ce dernier détail n'est pas suffisant pour écarter complètement cette hypothèse si l'on tient compte du fait que le prince de Starhemberg, le concepteur du plan d'ensemble du parc, était membre de la Loge Minerve aux Trois Palmiers de la Stricte Observance Templière. Sous le gouvernement de Charles Alexandre de Lorraine, il eut les pleins pouvoirs. Albert de Saxe-Teschen, le successeur de Charles de Lorraine en 1781, était également membre de la Stricte Observance et Protecteur des Rites rectifiés. Il faisait partie de la même Loge que Starhenberg. Apparenté à ce dernier, le Prince Wenceslas Antoine de Kaunitz, Chancelier d’État de Marie-Thérèse d'Autriche, était membre affilié de la Loge L'Heureuse Rencontre à Bruxelles. Enfin, le sculpteur principal du Parc et du fronton allégorique du Palais de la Nation, Gilles-Lambert Godecharle, était lui aussi Franc-maçon. Sur un refus de Joseph II, un obélisque du même Godecharle, orné de Minerve, Hermès et l'Abondance et protégé par huit sphinges ne prit jamais place au milieu du bassin rond. Il devait constituer la dernière pierre de tout l'édifice. Houdon, membre de la Loge des Neuf Sœurs devait en sculpter le bassin principal "qui doit faire parler le monument". Le timbre dit du premier jour du bicentenaire des Amis Philanthropes (1998), qui reprend un plan du parc de 1790, semble confirmer l’hypothèse du Parc de Bruxelles maçonnique.
 Au carrefour des trois chemins, près de l’entrée principale située en face du Parlement, une place circulaire est ornée d’une fontaine depuis 1855. Il s’agit d’un monument à l’ouvrage d’adduction d’eau dont Bruxelles venait de se doter pour assurer l’alimentation en eau courante de ses habitants. Les sources étaient captées au-delà de Braine-l'Alleud. Ce site a inspiré plus d’un artiste puisqu’il fut question d’y édifier un mémorial à Marie-Thérèse et Joseph II, un obélisque en souvenir de Waterloo ou de la révolution belge. Ils ont trouvé place ailleurs.
 Les hautes futaies bordées de taillis, les arbres d’alignement le long des allées et les deux grands salons de verdure du côté de la place des Palais, donnent à l’ensemble un caractère forestier un peu austère. Des plantations ordonnées enserrent des bosquets à la façon des cabinets de verdure, de Versailles, de Beloeil et d’ailleurs. Toutes les tentatives pour implanter des parterres de fleurs ont échoué.
 La résistance opposée régulièrement par le public lorsqu’il est question du renouvellement des massifs a contrarié leur régénération depuis l’aménagement du parc. À titre d’exemple, il a fallu attendre que l’orme, qui dominait les autres essences au parc Royal, ait totalement disparu lors de la dernière épidémie de graphiose de l'orme en 1979, pour remplacer les 360 arbres morts par du tilleul, du chêne et du hêtre.
@@ -592,7 +608,9 @@
           <t>Édifices et monuments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Théâtre royal du Parc : la façade nord du Vaux-hall, plusieurs fois remaniée, abrite un théâtre qui servait à la fois de salle des fêtes et de cabinet littéraire, où journaux et romans étaient mis à la disposition du public pour un sou. Au grand dam de l’évêché de Malines, des enfants, élèves acteurs, y donnaient des représentations variées : pantomimes, ballets, proverbes, comédies burlesques, petits opéras. L’institution change de vocation vers 1890, passant de la variété et des opérettes au théâtre classique. Plusieurs fois remanié par l’ajout d’un auvent, de balcons et d’un portique, le bâtiment a connu une profonde rénovation en l’an 2000. En décembre 1998, la scène a été la proie d'un incendie, rapidement maîtrisé. Cet incendie contenu dans la cage de scène n'a pas touché la salle.
 Vauxhall : emprunté à un lieu-dit créé à Londres en 1732, le mot « vaux-hall » évoque un jardin d’attractions. Pierre Francois Bultos et son fils Alexandre, les premiers exploitants, étaient Franc-maçons. C'était une famille de distillateurs, qui exploitaient déjà un débit de boissons sous une tente turque à l’angle des rues de la Loi et Ducale. Alexandre Bultos, avec son frère Herman Bultos, était également directeur du Théâtre de la Monnaie. Inspirée des immeubles de la place Royale, la façade classique, due à Louis Montoyer, comprend neuf travées régulières, dont une centrale plus large avec fronton, marquées de pilastres sans chapiteau. Une grande salle ornée de pilastres corinthiens sert de café, trois petites de restaurant. Sept pavillons, dont un cabinet chinois, entourent l’édifice. De 1820 à 1870, ses locaux abritent le « Concert Noble », société nobiliaire de l’académie de musique qui y organise bals et concerts. Celle-ci accole à la bâtisse une nouvelle salle de fêtes, sur les plans de Charles Vander Straeten, architecte du Palais des Académies et du pavillon de Tervueren. Sous l’égide du Cercle artistique et littéraire qui lui succède dans les lieux, Eugène Ysaÿe y interprète la première de la sonate pour violon et piano de son professeur, César Franck, avant qu’elle ne fasse le tour du monde. Le bâtiment est encore agrandi. L’association fusionne après guerre avec le Cercle Gaulois qui occupe encore aujourd’hui les lieux.
@@ -626,7 +644,9 @@
           <t>Le jardin des sculptures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Bruxelles contient une soixantaine de sculptures inspirées de la mythologie gréco-romaine. Elles proviennent, pour la plupart, du parc du château de Tervueren dont elles ont été déplacées au moment de la mort de son propriétaire, Charles de Lorraine. Payant un lourd tribut aux guerres, au vandalisme et à la pollution, elles ont, pour la plupart, été remplacées par des copies.
 Originellement, les statues étaient peintes dans des tons gris ou pierre de France. Ce n’est qu’à partir de 1921 que, cédant à une mode, un programme de décapage systématique a été mis en place.
@@ -650,8 +670,8 @@
 Flore (Laurent Delvaux, 1782) : déesse de la végétation.
 Pomone (Laurent Delvaux, 1782) : nymphe protectrice des fruits.
 Lion (Alphonse de Tombay, 1895) : la patte sur une sphère.
-Marie-Madeleine lisant, copie réalisée en 1894 par Louis Samain d'un original de Jérôme du Quesnoy conservé aux Musées royaux des beaux-arts de Belgique[7]. Réalisée pour l'ancienne Warande, elle fut placée dans le nouveau parc en 1779, puis installée dans une grotte à fontaine située dans les bas fonds en 1878. D'après une légende, la sainte rappellerait la mémoire d'une jeune Bruxelloise refusée à un jeune homme de condition trop modeste. De chagrin, elle se serait noyée dans une mare du bas-fond du parc.
-Buste du tsar Pierre le Grand (1856), bronze placé à l'écart dans ce qui reste du bas-fonds du parc, offert à la Ville par le prince Demidoff en souvenir d’une cuite de l’empereur russe, qui avait régurgité un plat trop arrosé au pied de la Madeleine en 1717. Le texte latin qui accompagne le buste, évoque l'événement en termes plus choisis : « Pierre Alexiovitz, Czar de Moscovie, Grand-Duc, assis au bord de cette fontaine, ennoblit son eau par le vin qu'il avait bu, le 16 avril 1717, à trois heures de l'après-dîner. »[8].
+Marie-Madeleine lisant, copie réalisée en 1894 par Louis Samain d'un original de Jérôme du Quesnoy conservé aux Musées royaux des beaux-arts de Belgique. Réalisée pour l'ancienne Warande, elle fut placée dans le nouveau parc en 1779, puis installée dans une grotte à fontaine située dans les bas fonds en 1878. D'après une légende, la sainte rappellerait la mémoire d'une jeune Bruxelloise refusée à un jeune homme de condition trop modeste. De chagrin, elle se serait noyée dans une mare du bas-fond du parc.
+Buste du tsar Pierre le Grand (1856), bronze placé à l'écart dans ce qui reste du bas-fonds du parc, offert à la Ville par le prince Demidoff en souvenir d’une cuite de l’empereur russe, qui avait régurgité un plat trop arrosé au pied de la Madeleine en 1717. Le texte latin qui accompagne le buste, évoque l'événement en termes plus choisis : « Pierre Alexiovitz, Czar de Moscovie, Grand-Duc, assis au bord de cette fontaine, ennoblit son eau par le vin qu'il avait bu, le 16 avril 1717, à trois heures de l'après-dîner. ».
 Deux lions en pierre (Joseph Dubois, 1780) : sur la balustrade qui longe la place des Palais.
 Sur les piliers de la porte centrale face au Palais royal, femmes avec angelot représentant :
 Le Printemps (Victor Poelaert, 1858)
@@ -692,7 +712,9 @@
           <t>Abri anti-aérien</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous le parc de Bruxelles se dissimule un abri anti-aérien, dont l'emplacement fut sans doute déterminé par la proximité du Parlement et du Palais royal. Construit en 1939, il était destiné à abriter le Centre Général de Renseignement et d'Alerte, qui s'occupait de la surveillance de l'espace aérien belge. Au cours de la Seconde guerre mondiale, l'endroit fut utilisé par l'occupant allemand, pour centraliser l'activité des équipes de radiogoniométrie qui travaillaient à repérer les postes émetteurs de la Résistance. Au cours de la Guerre froide, l'endroit fut aménagé en abri antiatomique, puis, à partir de 1960, affecté à la Protection civile pour actionner les commandes des sirènes de prévention à destination de la population tous les premiers jeudis du mois. Le lieu, accessible depuis le Cercle Gaulois, est actuellement désaffecté.
 </t>
@@ -723,7 +745,9 @@
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous, quelques-uns des arbres remarquables du parc répertoriés par la Commission des monuments et des sites :
 </t>
